--- a/myapp/files/80_distances/distances_aggregate_overview.xlsx
+++ b/myapp/files/80_distances/distances_aggregate_overview.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\Documents\mytestapp\myapp\files\80_distances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{307492E9-F61D-47A0-BA49-E9C61F3F9BCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E7D222-BE93-4991-80D2-1EA07FAF1586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Overall" sheetId="1" r:id="rId1"/>
+    <sheet name="RISK" sheetId="2" r:id="rId2"/>
+    <sheet name="CHANCE" sheetId="3" r:id="rId3"/>
+    <sheet name="OVERVIEW" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CHANCE!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">RISK!$A$1:$O$43</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="18">
   <si>
     <t>type</t>
   </si>
@@ -65,6 +72,15 @@
   </si>
   <si>
     <t>pooled</t>
+  </si>
+  <si>
+    <t>OVERALL</t>
+  </si>
+  <si>
+    <t>RISK</t>
+  </si>
+  <si>
+    <t>CHANCE</t>
   </si>
 </sst>
 </file>
@@ -112,7 +128,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,6 +167,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,25 +296,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -301,23 +329,21 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -622,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="V28" sqref="V28"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6:R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -742,29 +768,29 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6" t="s">
+      <c r="K6" s="5"/>
+      <c r="L6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="7" t="s">
+      <c r="N6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="O6" s="7" t="s">
+      <c r="O6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="P6" s="7" t="s">
+      <c r="P6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="Q6" s="7" t="s">
+      <c r="Q6" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="R6" s="7" t="s">
+      <c r="R6" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -785,18 +811,18 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="13"/>
     </row>
     <row r="8" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -815,29 +841,29 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="J8" s="12" t="s">
+      <c r="J8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="15">
+      <c r="K8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="9"/>
+      <c r="M8" s="10">
         <v>0.29804534883720901</v>
       </c>
-      <c r="N8" s="15">
+      <c r="N8" s="10">
         <v>0.31030348837209298</v>
       </c>
-      <c r="O8" s="15">
+      <c r="O8" s="10">
         <v>0.13188488372092999</v>
       </c>
-      <c r="P8" s="15">
+      <c r="P8" s="10">
         <v>0.14729999999999999</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="Q8" s="10">
         <v>0.294267441860465</v>
       </c>
-      <c r="R8" s="15">
+      <c r="R8" s="10">
         <v>0.66956511627907001</v>
       </c>
     </row>
@@ -858,27 +884,27 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="J9" s="7" t="s">
+      <c r="J9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="13"/>
-      <c r="L9" s="15">
+      <c r="K9" s="14"/>
+      <c r="L9" s="10">
         <v>0.32889186046511598</v>
       </c>
-      <c r="M9" s="14"/>
-      <c r="N9" s="15">
+      <c r="M9" s="9"/>
+      <c r="N9" s="10">
         <v>0.116977906976744</v>
       </c>
-      <c r="O9" s="15">
+      <c r="O9" s="10">
         <v>0.23723488372092999</v>
       </c>
-      <c r="P9" s="15">
+      <c r="P9" s="10">
         <v>0.18525</v>
       </c>
-      <c r="Q9" s="15">
+      <c r="Q9" s="10">
         <v>4.1193023255813997E-2</v>
       </c>
-      <c r="R9" s="15">
+      <c r="R9" s="10">
         <v>0.60086395348837196</v>
       </c>
     </row>
@@ -899,27 +925,27 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-      <c r="J10" s="7" t="s">
+      <c r="J10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="13"/>
-      <c r="L10" s="15">
+      <c r="K10" s="14"/>
+      <c r="L10" s="10">
         <v>0.33237209302325599</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="10">
         <v>8.1843023255813996E-2</v>
       </c>
-      <c r="N10" s="14"/>
-      <c r="O10" s="15">
+      <c r="N10" s="9"/>
+      <c r="O10" s="10">
         <v>0.249066279069767</v>
       </c>
-      <c r="P10" s="15">
+      <c r="P10" s="10">
         <v>0.23426046511627899</v>
       </c>
-      <c r="Q10" s="15">
+      <c r="Q10" s="10">
         <v>8.2987209302325601E-2</v>
       </c>
-      <c r="R10" s="15">
+      <c r="R10" s="10">
         <v>0.57586511627907</v>
       </c>
     </row>
@@ -940,27 +966,27 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="J11" s="7" t="s">
+      <c r="J11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="13"/>
-      <c r="L11" s="15">
+      <c r="K11" s="14"/>
+      <c r="L11" s="10">
         <v>0.18048023255814</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="10">
         <v>0.217541860465116</v>
       </c>
-      <c r="N11" s="15">
+      <c r="N11" s="10">
         <v>0.22886511627907</v>
       </c>
-      <c r="O11" s="14"/>
-      <c r="P11" s="15">
+      <c r="O11" s="9"/>
+      <c r="P11" s="10">
         <v>8.8261627906976697E-2</v>
       </c>
-      <c r="Q11" s="15">
+      <c r="Q11" s="10">
         <v>0.22039651162790699</v>
       </c>
-      <c r="R11" s="15">
+      <c r="R11" s="10">
         <v>0.60529418604651197</v>
       </c>
     </row>
@@ -981,27 +1007,27 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-      <c r="J12" s="7" t="s">
+      <c r="J12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="13"/>
-      <c r="L12" s="15">
+      <c r="K12" s="14"/>
+      <c r="L12" s="10">
         <v>0.17816860465116299</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="10">
         <v>0.182052325581395</v>
       </c>
-      <c r="N12" s="15">
+      <c r="N12" s="10">
         <v>0.19875697674418599</v>
       </c>
-      <c r="O12" s="15">
+      <c r="O12" s="10">
         <v>5.8326744186046497E-2</v>
       </c>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="15">
+      <c r="P12" s="9"/>
+      <c r="Q12" s="10">
         <v>0.19765232558139501</v>
       </c>
-      <c r="R12" s="15">
+      <c r="R12" s="10">
         <v>0.62156744186046498</v>
       </c>
     </row>
@@ -1022,27 +1048,27 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-      <c r="J13" s="7" t="s">
+      <c r="J13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="13"/>
-      <c r="L13" s="15">
+      <c r="K13" s="14"/>
+      <c r="L13" s="10">
         <v>0.32712906976744199</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M13" s="10">
         <v>1.8384883720930199E-2</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13" s="10">
         <v>7.0940697674418601E-2</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="10">
         <v>0.214975581395349</v>
       </c>
-      <c r="P13" s="15">
+      <c r="P13" s="10">
         <v>0.181918604651163</v>
       </c>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="15">
+      <c r="Q13" s="9"/>
+      <c r="R13" s="10">
         <v>0.584547674418605</v>
       </c>
     </row>
@@ -1063,29 +1089,29 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-      <c r="J14" s="7" t="s">
+      <c r="J14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="16"/>
-      <c r="L14" s="15">
+      <c r="K14" s="15"/>
+      <c r="L14" s="10">
         <v>0.68637093023255802</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="10">
         <v>0.57471976744186004</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N14" s="10">
         <v>0.56427558139534895</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O14" s="10">
         <v>0.61028488372093004</v>
       </c>
-      <c r="P14" s="15">
+      <c r="P14" s="10">
         <v>0.611012790697674</v>
       </c>
-      <c r="Q14" s="15">
+      <c r="Q14" s="10">
         <v>0.57190581395348805</v>
       </c>
-      <c r="R14" s="14"/>
+      <c r="R14" s="9"/>
     </row>
     <row r="15" spans="1:18" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -1592,6 +1618,18 @@
     <mergeCell ref="K8:K14"/>
     <mergeCell ref="J6:J7"/>
   </mergeCells>
+  <conditionalFormatting sqref="L9:L14 M10:M14 M8 N8:N9 N11 N12:O12 N13:P13 N14:Q14 O8:O10 P8:P11 Q8:Q12 R8:R13">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="L9:L14">
     <cfRule type="colorScale" priority="39">
       <colorScale>
@@ -1602,6 +1640,26 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L14:Q14 L9 L10:M10 L11:N11 L12:O12 L13:P13 R13 Q12:R12 P11:R11 O10:R10 N9:R9 M8:R8">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="M10">
     <cfRule type="colorScale" priority="38">
       <colorScale>
@@ -1652,6 +1710,56 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="N8">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N13">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N14">
     <cfRule type="colorScale" priority="33">
       <colorScale>
@@ -1662,28 +1770,28 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N13">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N12">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N11">
-    <cfRule type="colorScale" priority="30">
+  <conditionalFormatting sqref="O8">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1722,6 +1830,56 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="P8">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P9">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P10">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P11">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P13">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P14">
     <cfRule type="colorScale" priority="26">
       <colorScale>
@@ -1732,8 +1890,48 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P13">
-    <cfRule type="colorScale" priority="25">
+  <conditionalFormatting sqref="Q8">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q9">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q10">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q11">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q12">
+    <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1752,8 +1950,48 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q12">
-    <cfRule type="colorScale" priority="23">
+  <conditionalFormatting sqref="R8">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R9">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R10">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R11">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R12">
+    <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1768,218 +2006,6 @@
         <cfvo type="min"/>
         <cfvo type="max"/>
         <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R12">
-    <cfRule type="colorScale" priority="21">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R11">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R10">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R9">
-    <cfRule type="colorScale" priority="18">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q11">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q10">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q9">
-    <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R8">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q8">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P8">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P9">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P10">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P11">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O10">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O9">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O8">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N8">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N9">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M8">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L14:Q14 L9 L10:M10 L11:N11 L12:O12 L13:P13 R13 Q12:R12 P11:R11 O10:R10 N9:R9 M8:R8">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L9:L14 M10:M14 M8 N8:N9 N11 N12:O12 N13:P13 N14:Q14 O8:O10 P8:P11 Q8:Q12 R8:R13">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF63BE7B"/>
-        <color rgb="FFFFEB84"/>
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
@@ -1987,4 +2013,4397 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23916F99-7A8E-433D-B689-47A1D091AE1A}">
+  <dimension ref="A1:O43"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="18">
+        <v>0.58190882352941198</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0.60830588235294103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="18">
+        <v>0.19171911764705901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="18">
+        <v>0.29722205882352898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="18">
+        <v>0.314873529411765</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="18">
+        <v>0.13537647058823499</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="13"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="18">
+        <v>0.66296470588235301</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10">
+        <f>D5</f>
+        <v>0.29722205882352898</v>
+      </c>
+      <c r="K8" s="10">
+        <f>D6</f>
+        <v>0.314873529411765</v>
+      </c>
+      <c r="L8" s="10">
+        <f>D7</f>
+        <v>0.13537647058823499</v>
+      </c>
+      <c r="M8" s="10">
+        <f>D9</f>
+        <v>0.15024705882352901</v>
+      </c>
+      <c r="N8" s="10">
+        <f>D10</f>
+        <v>0.29860735294117602</v>
+      </c>
+      <c r="O8" s="10">
+        <f>D8</f>
+        <v>0.66296470588235301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="18">
+        <v>0.15024705882352901</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="10">
+        <f>D26</f>
+        <v>0.32216617647058798</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10">
+        <f>D18</f>
+        <v>0.114105882352941</v>
+      </c>
+      <c r="L9" s="10">
+        <f>D19</f>
+        <v>0.231133823529412</v>
+      </c>
+      <c r="M9" s="10">
+        <f>D21</f>
+        <v>0.18297352941176501</v>
+      </c>
+      <c r="N9" s="10">
+        <f>D22</f>
+        <v>3.9136764705882399E-2</v>
+      </c>
+      <c r="O9" s="10">
+        <f>D20</f>
+        <v>0.59760882352941203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="18">
+        <v>0.29860735294117602</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="10">
+        <f>D27</f>
+        <v>0.335111764705882</v>
+      </c>
+      <c r="J10" s="10">
+        <f>D39</f>
+        <v>7.7741176470588202E-2</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="10">
+        <f>D14</f>
+        <v>0.239920588235294</v>
+      </c>
+      <c r="M10" s="10">
+        <f>D16</f>
+        <v>0.2283</v>
+      </c>
+      <c r="N10" s="10">
+        <f>D17</f>
+        <v>8.2095588235294101E-2</v>
+      </c>
+      <c r="O10" s="10">
+        <f>D15</f>
+        <v>0.57423529411764695</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="18">
+        <v>0.60174852941176504</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="10">
+        <f>D28</f>
+        <v>0.17593235294117601</v>
+      </c>
+      <c r="J11" s="10">
+        <f>D40</f>
+        <v>0.210577941176471</v>
+      </c>
+      <c r="K11" s="10">
+        <f>D35</f>
+        <v>0.222907352941176</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="10">
+        <f>D12</f>
+        <v>8.6699999999999999E-2</v>
+      </c>
+      <c r="N11" s="10">
+        <f>D13</f>
+        <v>0.214214705882353</v>
+      </c>
+      <c r="O11" s="10">
+        <f>D11</f>
+        <v>0.60174852941176504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="18">
+        <v>8.6699999999999999E-2</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="10">
+        <f>D30</f>
+        <v>0.17214705882352899</v>
+      </c>
+      <c r="J12" s="10">
+        <f>D42</f>
+        <v>0.18191911764705901</v>
+      </c>
+      <c r="K12" s="10">
+        <f>D37</f>
+        <v>0.19559705882352901</v>
+      </c>
+      <c r="L12" s="10">
+        <f>D33</f>
+        <v>5.2270588235294103E-2</v>
+      </c>
+      <c r="M12" s="9"/>
+      <c r="N12" s="10">
+        <f>D4</f>
+        <v>0.19171911764705901</v>
+      </c>
+      <c r="O12" s="10">
+        <f>D3</f>
+        <v>0.60830588235294103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="18">
+        <v>0.214214705882353</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="10">
+        <f>D31</f>
+        <v>0.32490588235294099</v>
+      </c>
+      <c r="J13" s="10">
+        <f>D38</f>
+        <v>6.84647058823529E-2</v>
+      </c>
+      <c r="K13" s="10">
+        <f>D38</f>
+        <v>6.84647058823529E-2</v>
+      </c>
+      <c r="L13" s="10">
+        <f>D34</f>
+        <v>0.20984558823529401</v>
+      </c>
+      <c r="M13" s="10">
+        <f>D25</f>
+        <v>0.181180882352941</v>
+      </c>
+      <c r="N13" s="9"/>
+      <c r="O13" s="10">
+        <f>D2</f>
+        <v>0.58190882352941198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="18">
+        <v>0.239920588235294</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="10">
+        <f>D29</f>
+        <v>0.67870588235294105</v>
+      </c>
+      <c r="J14" s="10">
+        <f>D41</f>
+        <v>0.57016764705882395</v>
+      </c>
+      <c r="K14" s="10">
+        <f>D36</f>
+        <v>0.56779999999999997</v>
+      </c>
+      <c r="L14" s="10">
+        <f>D32</f>
+        <v>0.615311764705882</v>
+      </c>
+      <c r="M14" s="10">
+        <f>D24</f>
+        <v>0.60599558823529398</v>
+      </c>
+      <c r="N14" s="10">
+        <f>D23</f>
+        <v>0.570427941176471</v>
+      </c>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0.57423529411764695</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="18">
+        <v>0.2283</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17" s="18">
+        <v>8.2095588235294101E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="18">
+        <v>0.114105882352941</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="18">
+        <v>0.231133823529412</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="18">
+        <v>0.59760882352941203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="18">
+        <v>0.18297352941176501</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22" s="18">
+        <v>3.9136764705882399E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="18">
+        <v>0.570427941176471</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="18">
+        <v>0.60599558823529398</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="18">
+        <v>0.181180882352941</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" s="18">
+        <v>0.32216617647058798</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="18">
+        <v>0.335111764705882</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="18">
+        <v>0.17593235294117601</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="18">
+        <v>0.67870588235294105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30" s="18">
+        <v>0.17214705882352899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="18">
+        <v>0.32490588235294099</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="18">
+        <v>0.615311764705882</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="18">
+        <v>5.2270588235294103E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="18">
+        <v>0.20984558823529401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="18">
+        <v>0.222907352941176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" s="18">
+        <v>0.56779999999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37" s="18">
+        <v>0.19559705882352901</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="18">
+        <v>6.84647058823529E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="18">
+        <v>7.7741176470588202E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="18">
+        <v>0.210577941176471</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="18">
+        <v>0.57016764705882395</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42" s="18">
+        <v>0.18191911764705901</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43" s="18">
+        <v>1.6010294117647102E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:O43" xr:uid="{23916F99-7A8E-433D-B689-47A1D091AE1A}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D43">
+    <sortCondition ref="A2:A43"/>
+    <sortCondition descending="1" ref="B2:B43"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="H8:H14"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I9:I14 J10:J14 J8 K8:K9 K11 K12:L12 K13:M13 K14:N14 L8:L10 M8:M11 N8:N12 O8:O13">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9:I14">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:N14 I9 I10:J10 I11:K11 I12:L12 I13:M13 O13 N12:O12 M11:O11 L10:O10 K9:O9 J8:O8">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M10">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O8">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O11">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O12">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O13">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBC4B28D-FE38-4F5C-B000-B89FEB2AFD16}">
+  <dimension ref="A1:O43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6:O14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>0.59445555555555596</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>0.67166666666666697</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>0.220122222222222</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>0.30115555555555601</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>0.29303888888888902</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>0.11869444444444401</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="13"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8">
+        <v>0.69450000000000001</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="9"/>
+      <c r="J8" s="10">
+        <f>D5</f>
+        <v>0.30115555555555601</v>
+      </c>
+      <c r="K8" s="10">
+        <f>D6</f>
+        <v>0.29303888888888902</v>
+      </c>
+      <c r="L8" s="10">
+        <f>D7</f>
+        <v>0.11869444444444401</v>
+      </c>
+      <c r="M8" s="10">
+        <f>D9</f>
+        <v>0.13616666666666699</v>
+      </c>
+      <c r="N8" s="10">
+        <f>D10</f>
+        <v>0.27758333333333302</v>
+      </c>
+      <c r="O8" s="10">
+        <f>D8</f>
+        <v>0.69450000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9">
+        <v>0.13616666666666699</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="10">
+        <f>D26</f>
+        <v>0.3543</v>
+      </c>
+      <c r="J9" s="9"/>
+      <c r="K9" s="10">
+        <f>D18</f>
+        <v>0.12782777777777801</v>
+      </c>
+      <c r="L9" s="10">
+        <f>D19</f>
+        <v>0.26028333333333298</v>
+      </c>
+      <c r="M9" s="10">
+        <f>D21</f>
+        <v>0.19384999999999999</v>
+      </c>
+      <c r="N9" s="10">
+        <f>D22</f>
+        <v>4.89222222222222E-2</v>
+      </c>
+      <c r="O9" s="10">
+        <f>D20</f>
+        <v>0.61316111111111105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>0.27758333333333302</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="10">
+        <f>D27</f>
+        <v>0.32202222222222199</v>
+      </c>
+      <c r="J10" s="10">
+        <f>D39</f>
+        <v>9.7338888888888905E-2</v>
+      </c>
+      <c r="K10" s="9"/>
+      <c r="L10" s="10">
+        <f>D14</f>
+        <v>0.28361666666666702</v>
+      </c>
+      <c r="M10" s="10">
+        <f>D16</f>
+        <v>0.25677777777777799</v>
+      </c>
+      <c r="N10" s="10">
+        <f>D17</f>
+        <v>8.6238888888888907E-2</v>
+      </c>
+      <c r="O10" s="10">
+        <f>D15</f>
+        <v>0.582022222222222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>0.61868888888888895</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="10">
+        <f>D28</f>
+        <v>0.19766111111111101</v>
+      </c>
+      <c r="J11" s="10">
+        <f>D40</f>
+        <v>0.24385000000000001</v>
+      </c>
+      <c r="K11" s="10">
+        <f>D35</f>
+        <v>0.251372222222222</v>
+      </c>
+      <c r="L11" s="9"/>
+      <c r="M11" s="10">
+        <f>D12</f>
+        <v>9.4161111111111098E-2</v>
+      </c>
+      <c r="N11" s="10">
+        <f>D13</f>
+        <v>0.24381111111111101</v>
+      </c>
+      <c r="O11" s="10">
+        <f>D11</f>
+        <v>0.61868888888888895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12">
+        <v>9.4161111111111098E-2</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="10">
+        <f>D30</f>
+        <v>0.20091666666666699</v>
+      </c>
+      <c r="J12" s="10">
+        <f>D42</f>
+        <v>0.182555555555556</v>
+      </c>
+      <c r="K12" s="10">
+        <f>D37</f>
+        <v>0.21069444444444399</v>
+      </c>
+      <c r="L12" s="10">
+        <f>D33</f>
+        <v>8.12055555555556E-2</v>
+      </c>
+      <c r="M12" s="9"/>
+      <c r="N12" s="10">
+        <f>D4</f>
+        <v>0.220122222222222</v>
+      </c>
+      <c r="O12" s="10">
+        <f>D3</f>
+        <v>0.67166666666666697</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13">
+        <v>0.24381111111111101</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="14"/>
+      <c r="I13" s="10">
+        <f>D31</f>
+        <v>0.33557777777777797</v>
+      </c>
+      <c r="J13" s="10">
+        <f>D38</f>
+        <v>8.0233333333333295E-2</v>
+      </c>
+      <c r="K13" s="10">
+        <f>D38</f>
+        <v>8.0233333333333295E-2</v>
+      </c>
+      <c r="L13" s="10">
+        <f>D34</f>
+        <v>0.23433888888888901</v>
+      </c>
+      <c r="M13" s="10">
+        <f>D25</f>
+        <v>0.18468888888888901</v>
+      </c>
+      <c r="N13" s="9"/>
+      <c r="O13" s="10">
+        <f>D2</f>
+        <v>0.59445555555555596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>0.28361666666666702</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="10">
+        <f>D29</f>
+        <v>0.71532777777777801</v>
+      </c>
+      <c r="J14" s="10">
+        <f>D41</f>
+        <v>0.59191666666666698</v>
+      </c>
+      <c r="K14" s="10">
+        <f>D36</f>
+        <v>0.55096111111111101</v>
+      </c>
+      <c r="L14" s="10">
+        <f>D32</f>
+        <v>0.59129444444444401</v>
+      </c>
+      <c r="M14" s="10">
+        <f>D24</f>
+        <v>0.62996666666666701</v>
+      </c>
+      <c r="N14" s="10">
+        <f>D23</f>
+        <v>0.57735555555555595</v>
+      </c>
+      <c r="O14" s="9"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15">
+        <v>0.582022222222222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16">
+        <v>0.25677777777777799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D17">
+        <v>8.6238888888888907E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>0.12782777777777801</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19">
+        <v>0.26028333333333298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>0.61316111111111105</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21">
+        <v>0.19384999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D22">
+        <v>4.89222222222222E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23">
+        <v>0.57735555555555595</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24">
+        <v>0.62996666666666701</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25">
+        <v>0.18468888888888901</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>0.3543</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27">
+        <v>0.32202222222222199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28">
+        <v>0.19766111111111101</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29">
+        <v>0.71532777777777801</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>5</v>
+      </c>
+      <c r="C30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D30">
+        <v>0.20091666666666699</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31">
+        <v>0.33557777777777797</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32">
+        <v>0.59129444444444401</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33">
+        <v>8.12055555555556E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34">
+        <v>0.23433888888888901</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>0.251372222222222</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36">
+        <v>0.55096111111111101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>11</v>
+      </c>
+      <c r="D37">
+        <v>0.21069444444444399</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38">
+        <v>8.0233333333333295E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39">
+        <v>9.7338888888888905E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>7</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <v>0.24385000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41">
+        <v>0.59191666666666698</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D42">
+        <v>0.182555555555556</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>12</v>
+      </c>
+      <c r="D43">
+        <v>2.7522222222222201E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{DBC4B28D-FE38-4F5C-B000-B89FEB2AFD16}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D43">
+      <sortCondition ref="B1"/>
+    </sortState>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D44">
+    <sortCondition ref="A2:A44"/>
+    <sortCondition descending="1" ref="B2:B44"/>
+  </sortState>
+  <mergeCells count="3">
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="I7:O7"/>
+    <mergeCell ref="H8:H14"/>
+  </mergeCells>
+  <conditionalFormatting sqref="I9:I14 J10:J14 J8 K8:K9 K11 K12:L12 K13:M13 K14:N14 L8:L10 M8:M11 N8:N12 O8:O13">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9:I14">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:N14 I9 I10:J10 I11:K11 I12:L12 I13:M13 O13 N12:O12 M11:O11 L10:O10 K9:O9 J8:O8">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K12">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K14">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L8">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L9">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L10">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L12">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M8">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M9">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M10">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M11">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M14">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N11">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N14">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O8">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O10">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O11">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O12">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O13">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1795D780-7E5E-4FBD-9466-2D205C5E6634}">
+  <dimension ref="A2:J30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J30" sqref="B22:J30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="10">
+        <v>0.29804534883720901</v>
+      </c>
+      <c r="F4" s="10">
+        <v>0.31030348837209298</v>
+      </c>
+      <c r="G4" s="10">
+        <v>0.13188488372092999</v>
+      </c>
+      <c r="H4" s="10">
+        <v>0.14729999999999999</v>
+      </c>
+      <c r="I4" s="10">
+        <v>0.294267441860465</v>
+      </c>
+      <c r="J4" s="10">
+        <v>0.66956511627907001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="10">
+        <v>0.32889186046511598</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10">
+        <v>0.116977906976744</v>
+      </c>
+      <c r="G5" s="10">
+        <v>0.23723488372092999</v>
+      </c>
+      <c r="H5" s="10">
+        <v>0.18525</v>
+      </c>
+      <c r="I5" s="10">
+        <v>4.1193023255813997E-2</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0.60086395348837196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="10">
+        <v>0.33237209302325599</v>
+      </c>
+      <c r="E6" s="10">
+        <v>8.1843023255813996E-2</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10">
+        <v>0.249066279069767</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0.23426046511627899</v>
+      </c>
+      <c r="I6" s="10">
+        <v>8.2987209302325601E-2</v>
+      </c>
+      <c r="J6" s="10">
+        <v>0.57586511627907</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="10">
+        <v>0.18048023255814</v>
+      </c>
+      <c r="E7" s="10">
+        <v>0.217541860465116</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0.22886511627907</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10">
+        <v>8.8261627906976697E-2</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0.22039651162790699</v>
+      </c>
+      <c r="J7" s="10">
+        <v>0.60529418604651197</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="10">
+        <v>0.17816860465116299</v>
+      </c>
+      <c r="E8" s="10">
+        <v>0.182052325581395</v>
+      </c>
+      <c r="F8" s="10">
+        <v>0.19875697674418599</v>
+      </c>
+      <c r="G8" s="10">
+        <v>5.8326744186046497E-2</v>
+      </c>
+      <c r="H8" s="9"/>
+      <c r="I8" s="10">
+        <v>0.19765232558139501</v>
+      </c>
+      <c r="J8" s="10">
+        <v>0.62156744186046498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="10">
+        <v>0.32712906976744199</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1.8384883720930199E-2</v>
+      </c>
+      <c r="F9" s="10">
+        <v>7.0940697674418601E-2</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0.214975581395349</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0.181918604651163</v>
+      </c>
+      <c r="I9" s="9"/>
+      <c r="J9" s="10">
+        <v>0.584547674418605</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="15"/>
+      <c r="D10" s="10">
+        <v>0.68637093023255802</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0.57471976744186004</v>
+      </c>
+      <c r="F10" s="10">
+        <v>0.56427558139534895</v>
+      </c>
+      <c r="G10" s="10">
+        <v>0.61028488372093004</v>
+      </c>
+      <c r="H10" s="10">
+        <v>0.611012790697674</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0.57190581395348805</v>
+      </c>
+      <c r="J10" s="9"/>
+    </row>
+    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="10">
+        <v>0.29722205882352898</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0.314873529411765</v>
+      </c>
+      <c r="G14" s="10">
+        <v>0.13537647058823499</v>
+      </c>
+      <c r="H14" s="10">
+        <v>0.15024705882352901</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0.29860735294117602</v>
+      </c>
+      <c r="J14" s="10">
+        <v>0.66296470588235301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="10">
+        <v>0.32216617647058798</v>
+      </c>
+      <c r="E15" s="9"/>
+      <c r="F15" s="10">
+        <v>0.114105882352941</v>
+      </c>
+      <c r="G15" s="10">
+        <v>0.231133823529412</v>
+      </c>
+      <c r="H15" s="10">
+        <v>0.18297352941176501</v>
+      </c>
+      <c r="I15" s="10">
+        <v>3.9136764705882399E-2</v>
+      </c>
+      <c r="J15" s="10">
+        <v>0.59760882352941203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="10">
+        <v>0.335111764705882</v>
+      </c>
+      <c r="E16" s="10">
+        <v>7.7741176470588202E-2</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="10">
+        <v>0.239920588235294</v>
+      </c>
+      <c r="H16" s="10">
+        <v>0.2283</v>
+      </c>
+      <c r="I16" s="10">
+        <v>8.2095588235294101E-2</v>
+      </c>
+      <c r="J16" s="10">
+        <v>0.57423529411764695</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="10">
+        <v>0.17593235294117601</v>
+      </c>
+      <c r="E17" s="10">
+        <v>0.210577941176471</v>
+      </c>
+      <c r="F17" s="10">
+        <v>0.222907352941176</v>
+      </c>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10">
+        <v>8.6699999999999999E-2</v>
+      </c>
+      <c r="I17" s="10">
+        <v>0.214214705882353</v>
+      </c>
+      <c r="J17" s="10">
+        <v>0.60174852941176504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="10">
+        <v>0.17214705882352899</v>
+      </c>
+      <c r="E18" s="10">
+        <v>0.18191911764705901</v>
+      </c>
+      <c r="F18" s="10">
+        <v>0.19559705882352901</v>
+      </c>
+      <c r="G18" s="10">
+        <v>5.2270588235294103E-2</v>
+      </c>
+      <c r="H18" s="9"/>
+      <c r="I18" s="10">
+        <v>0.19171911764705901</v>
+      </c>
+      <c r="J18" s="10">
+        <v>0.60830588235294103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="10">
+        <v>0.32490588235294099</v>
+      </c>
+      <c r="E19" s="10">
+        <v>6.84647058823529E-2</v>
+      </c>
+      <c r="F19" s="10">
+        <v>6.84647058823529E-2</v>
+      </c>
+      <c r="G19" s="10">
+        <v>0.20984558823529401</v>
+      </c>
+      <c r="H19" s="10">
+        <v>0.181180882352941</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="10">
+        <v>0.58190882352941198</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="10">
+        <v>0.67870588235294105</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0.57016764705882395</v>
+      </c>
+      <c r="F20" s="10">
+        <v>0.56779999999999997</v>
+      </c>
+      <c r="G20" s="10">
+        <v>0.615311764705882</v>
+      </c>
+      <c r="H20" s="10">
+        <v>0.60599558823529398</v>
+      </c>
+      <c r="I20" s="10">
+        <v>0.570427941176471</v>
+      </c>
+      <c r="J20" s="9"/>
+    </row>
+    <row r="22" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="10">
+        <v>0.30115555555555601</v>
+      </c>
+      <c r="F24" s="10">
+        <v>0.29303888888888902</v>
+      </c>
+      <c r="G24" s="10">
+        <v>0.11869444444444401</v>
+      </c>
+      <c r="H24" s="10">
+        <v>0.13616666666666699</v>
+      </c>
+      <c r="I24" s="10">
+        <v>0.27758333333333302</v>
+      </c>
+      <c r="J24" s="10">
+        <v>0.69450000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="10">
+        <v>0.3543</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="10">
+        <v>0.12782777777777801</v>
+      </c>
+      <c r="G25" s="10">
+        <v>0.26028333333333298</v>
+      </c>
+      <c r="H25" s="10">
+        <v>0.19384999999999999</v>
+      </c>
+      <c r="I25" s="10">
+        <v>4.89222222222222E-2</v>
+      </c>
+      <c r="J25" s="10">
+        <v>0.61316111111111105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="10">
+        <v>0.32202222222222199</v>
+      </c>
+      <c r="E26" s="10">
+        <v>9.7338888888888905E-2</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="10">
+        <v>0.28361666666666702</v>
+      </c>
+      <c r="H26" s="10">
+        <v>0.25677777777777799</v>
+      </c>
+      <c r="I26" s="10">
+        <v>8.6238888888888907E-2</v>
+      </c>
+      <c r="J26" s="10">
+        <v>0.582022222222222</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="14"/>
+      <c r="D27" s="10">
+        <v>0.19766111111111101</v>
+      </c>
+      <c r="E27" s="10">
+        <v>0.24385000000000001</v>
+      </c>
+      <c r="F27" s="10">
+        <v>0.251372222222222</v>
+      </c>
+      <c r="G27" s="9"/>
+      <c r="H27" s="10">
+        <v>9.4161111111111098E-2</v>
+      </c>
+      <c r="I27" s="10">
+        <v>0.24381111111111101</v>
+      </c>
+      <c r="J27" s="10">
+        <v>0.61868888888888895</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C28" s="14"/>
+      <c r="D28" s="10">
+        <v>0.20091666666666699</v>
+      </c>
+      <c r="E28" s="10">
+        <v>0.182555555555556</v>
+      </c>
+      <c r="F28" s="10">
+        <v>0.21069444444444399</v>
+      </c>
+      <c r="G28" s="10">
+        <v>8.12055555555556E-2</v>
+      </c>
+      <c r="H28" s="9"/>
+      <c r="I28" s="10">
+        <v>0.220122222222222</v>
+      </c>
+      <c r="J28" s="10">
+        <v>0.67166666666666697</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="14"/>
+      <c r="D29" s="10">
+        <v>0.33557777777777797</v>
+      </c>
+      <c r="E29" s="10">
+        <v>8.0233333333333295E-2</v>
+      </c>
+      <c r="F29" s="10">
+        <v>8.0233333333333295E-2</v>
+      </c>
+      <c r="G29" s="10">
+        <v>0.23433888888888901</v>
+      </c>
+      <c r="H29" s="10">
+        <v>0.18468888888888901</v>
+      </c>
+      <c r="I29" s="9"/>
+      <c r="J29" s="10">
+        <v>0.59445555555555596</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="10">
+        <v>0.71532777777777801</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0.59191666666666698</v>
+      </c>
+      <c r="F30" s="10">
+        <v>0.55096111111111101</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0.59129444444444401</v>
+      </c>
+      <c r="H30" s="10">
+        <v>0.62996666666666701</v>
+      </c>
+      <c r="I30" s="10">
+        <v>0.57735555555555595</v>
+      </c>
+      <c r="J30" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="D23:J23"/>
+    <mergeCell ref="C24:C30"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B12:C13"/>
+    <mergeCell ref="B22:C23"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="C4:C10"/>
+    <mergeCell ref="D13:J13"/>
+    <mergeCell ref="C14:C20"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D5:D10 E6:E10 E4 F4:F5 F7 F8:G8 F9:H9 F10:I10 G4:G6 H4:H7 I4:I8 J4:J9">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D10">
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:I10 D5 D6:E6 D7:F7 D8:G8 D9:H9 J9 I8:J8 H7:J7 G6:J6 F5:J5 E4:J4">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E6">
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="colorScale" priority="115">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E8">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G8">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I10">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:D20 E16:E20 E14 F14:F15 F17 F18:G18 F19:H19 F20:I20 G14:G16 H14:H17 I14:I18 J14:J19">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:D20">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:I20 D15 D16:E16 D17:F17 D18:G18 D19:H19 J19 I18:J18 H17:J17 G16:J16 F15:J15 E14:J14">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E14">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G15">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H14">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H15">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H19">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I20">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:D30 E26:E30 E24 F24:F25 F27 F28:G28 F29:H29 F30:I30 G24:G26 H24:H27 I24:I28 J24:J29">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:D30">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:I30 D25 D26:E26 D27:F27 D28:G28 D29:H29 J29 I28:J28 H27:J27 G26:J26 F25:J25 E24:J24">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="colorScale" priority="37">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="colorScale" priority="34">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="colorScale" priority="31">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G24">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="colorScale" priority="28">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="colorScale" priority="27">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H24">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H29">
+    <cfRule type="colorScale" priority="25">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="colorScale" priority="24">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
+    <cfRule type="colorScale" priority="21">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/myapp/files/80_distances/distances_aggregate_overview.xlsx
+++ b/myapp/files/80_distances/distances_aggregate_overview.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Albert\Documents\mytestapp\myapp\files\80_distances\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E7D222-BE93-4991-80D2-1EA07FAF1586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B909CD-2911-4A83-B160-1052831157DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="66">
   <si>
     <t>type</t>
   </si>
@@ -81,6 +81,150 @@
   </si>
   <si>
     <t>CHANCE</t>
+  </si>
+  <si>
+    <t>Kolmogorov-Smirnov distance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OVERALL </t>
+  </si>
+  <si>
+    <t>FISHERS METHOD p-Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RISK </t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>combined_p_value</t>
+  </si>
+  <si>
+    <t>IMP.classic.area</t>
+  </si>
+  <si>
+    <t>OCC.classic.area</t>
+  </si>
+  <si>
+    <t>IMP.classic.weighted</t>
+  </si>
+  <si>
+    <t>OCC.classic.weighted</t>
+  </si>
+  <si>
+    <t>IMP.classic.center</t>
+  </si>
+  <si>
+    <t>OCC.classic.center</t>
+  </si>
+  <si>
+    <t>IMP.classic.centertogrid</t>
+  </si>
+  <si>
+    <t>OCC.classic.centertogrid</t>
+  </si>
+  <si>
+    <t>IMP.classic.reachedgrid</t>
+  </si>
+  <si>
+    <t>OCC.classic.reachedgrid</t>
+  </si>
+  <si>
+    <t>IMP.classic.pooling</t>
+  </si>
+  <si>
+    <t>OCC.classic.pooling</t>
+  </si>
+  <si>
+    <t>IMP.area.center</t>
+  </si>
+  <si>
+    <t>OCC.area.center</t>
+  </si>
+  <si>
+    <t>IMP.area.centertogrid</t>
+  </si>
+  <si>
+    <t>OCC.area.centertogrid</t>
+  </si>
+  <si>
+    <t>IMP.area.reachedgrid</t>
+  </si>
+  <si>
+    <t>OCC.area.reachedgrid</t>
+  </si>
+  <si>
+    <t>IMP.area.weighted</t>
+  </si>
+  <si>
+    <t>OCC.area.weighted</t>
+  </si>
+  <si>
+    <t>IMP.area.pooling</t>
+  </si>
+  <si>
+    <t>OCC.area.pooling</t>
+  </si>
+  <si>
+    <t>IMP.center.centertogrid</t>
+  </si>
+  <si>
+    <t>OCC.center.centertogrid</t>
+  </si>
+  <si>
+    <t>IMP.center.reachedgrid</t>
+  </si>
+  <si>
+    <t>OCC.center.reachedgrid</t>
+  </si>
+  <si>
+    <t>IMP.center.weighted</t>
+  </si>
+  <si>
+    <t>OCC.center.weighted</t>
+  </si>
+  <si>
+    <t>IMP.center.pooling</t>
+  </si>
+  <si>
+    <t>OCC.center.pooling</t>
+  </si>
+  <si>
+    <t>IMP.centertogrid.reachedgrid</t>
+  </si>
+  <si>
+    <t>OCC.centertogrid.reachedgrid</t>
+  </si>
+  <si>
+    <t>IMP.centertogrid.weighted</t>
+  </si>
+  <si>
+    <t>OCC.centertogrid.weighted</t>
+  </si>
+  <si>
+    <t>IMP.centertogrid.pooling</t>
+  </si>
+  <si>
+    <t>OCC.centertogrid.pooling</t>
+  </si>
+  <si>
+    <t>IMP.reachedgrid.weighted</t>
+  </si>
+  <si>
+    <t>OCC.reachedgrid.weighted</t>
+  </si>
+  <si>
+    <t>IMP.reachedgrid.pooling</t>
+  </si>
+  <si>
+    <t>OCC.reachedgrid.pooling</t>
+  </si>
+  <si>
+    <t>IMP.weighted.pooling</t>
+  </si>
+  <si>
+    <t>OCC.weighted.pooling</t>
   </si>
 </sst>
 </file>
@@ -177,7 +321,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -292,11 +436,91 @@
         <color indexed="64"/>
       </diagonal>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -323,6 +547,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -341,9 +566,23 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -768,7 +1007,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="16" t="s">
+      <c r="J6" s="17" t="s">
         <v>13</v>
       </c>
       <c r="K6" s="5"/>
@@ -812,17 +1051,17 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="11"/>
-      <c r="J7" s="17"/>
+      <c r="J7" s="18"/>
       <c r="K7" s="7"/>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="14"/>
     </row>
     <row r="8" spans="1:18" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -844,7 +1083,7 @@
       <c r="J8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K8" s="14" t="s">
+      <c r="K8" s="15" t="s">
         <v>7</v>
       </c>
       <c r="L8" s="9"/>
@@ -887,7 +1126,7 @@
       <c r="J9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="14"/>
+      <c r="K9" s="15"/>
       <c r="L9" s="10">
         <v>0.32889186046511598</v>
       </c>
@@ -928,7 +1167,7 @@
       <c r="J10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="K10" s="14"/>
+      <c r="K10" s="15"/>
       <c r="L10" s="10">
         <v>0.33237209302325599</v>
       </c>
@@ -969,7 +1208,7 @@
       <c r="J11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K11" s="14"/>
+      <c r="K11" s="15"/>
       <c r="L11" s="10">
         <v>0.18048023255814</v>
       </c>
@@ -1010,7 +1249,7 @@
       <c r="J12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="14"/>
+      <c r="K12" s="15"/>
       <c r="L12" s="10">
         <v>0.17816860465116299</v>
       </c>
@@ -1051,7 +1290,7 @@
       <c r="J13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="14"/>
+      <c r="K13" s="15"/>
       <c r="L13" s="10">
         <v>0.32712906976744199</v>
       </c>
@@ -1092,7 +1331,7 @@
       <c r="J14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K14" s="15"/>
+      <c r="K14" s="16"/>
       <c r="L14" s="10">
         <v>0.68637093023255802</v>
       </c>
@@ -2044,75 +2283,75 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="12">
         <v>0.58190882352941198</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="12">
         <v>0.60830588235294103</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="12">
         <v>0.19171911764705901</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="18">
+      <c r="D5" s="12">
         <v>0.29722205882352898</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="18">
+      <c r="D6" s="12">
         <v>0.314873529411765</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="17" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="5"/>
@@ -2139,47 +2378,47 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D7" s="12">
         <v>0.13537647058823499</v>
       </c>
-      <c r="G7" s="17"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="14"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="18">
+      <c r="D8" s="12">
         <v>0.66296470588235301</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="15" t="s">
         <v>7</v>
       </c>
       <c r="I8" s="9"/>
@@ -2209,22 +2448,22 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="18">
+      <c r="D9" s="12">
         <v>0.15024705882352901</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="14"/>
+      <c r="H9" s="15"/>
       <c r="I9" s="10">
         <f>D26</f>
         <v>0.32216617647058798</v>
@@ -2252,22 +2491,22 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="18" t="s">
+      <c r="C10" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="12">
         <v>0.29860735294117602</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="14"/>
+      <c r="H10" s="15"/>
       <c r="I10" s="10">
         <f>D27</f>
         <v>0.335111764705882</v>
@@ -2295,22 +2534,22 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="12">
         <v>0.60174852941176504</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="14"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="10">
         <f>D28</f>
         <v>0.17593235294117601</v>
@@ -2338,22 +2577,22 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="12">
         <v>8.6699999999999999E-2</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="14"/>
+      <c r="H12" s="15"/>
       <c r="I12" s="10">
         <f>D30</f>
         <v>0.17214705882352899</v>
@@ -2381,22 +2620,22 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="12">
         <v>0.214214705882353</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="14"/>
+      <c r="H13" s="15"/>
       <c r="I13" s="10">
         <f>D31</f>
         <v>0.32490588235294099</v>
@@ -2424,22 +2663,22 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="18">
+      <c r="D14" s="12">
         <v>0.239920588235294</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="15"/>
+      <c r="H14" s="16"/>
       <c r="I14" s="10">
         <f>D29</f>
         <v>0.67870588235294105</v>
@@ -2467,408 +2706,408 @@
       <c r="O14" s="9"/>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D15" s="12">
         <v>0.57423529411764695</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="18">
+      <c r="D16" s="12">
         <v>0.2283</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="18" t="s">
+      <c r="C17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="18">
+      <c r="D17" s="12">
         <v>8.2095588235294101E-2</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="18" t="s">
+      <c r="C18" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="12">
         <v>0.114105882352941</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="18" t="s">
+      <c r="C19" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="12">
         <v>0.231133823529412</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="12">
         <v>0.59760882352941203</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="12">
         <v>0.18297352941176501</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D22" s="18">
+      <c r="D22" s="12">
         <v>3.9136764705882399E-2</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D23" s="12">
         <v>0.570427941176471</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D24" s="12">
         <v>0.60599558823529398</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="18">
+      <c r="D25" s="12">
         <v>0.181180882352941</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D26" s="18">
+      <c r="D26" s="12">
         <v>0.32216617647058798</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="18">
+      <c r="D27" s="12">
         <v>0.335111764705882</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="C28" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D28" s="18">
+      <c r="D28" s="12">
         <v>0.17593235294117601</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="18" t="s">
+      <c r="C29" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D29" s="18">
+      <c r="D29" s="12">
         <v>0.67870588235294105</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="18" t="s">
+      <c r="C30" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="18">
+      <c r="D30" s="12">
         <v>0.17214705882352899</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C31" s="18" t="s">
+      <c r="C31" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D31" s="18">
+      <c r="D31" s="12">
         <v>0.32490588235294099</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D32" s="18">
+      <c r="D32" s="12">
         <v>0.615311764705882</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="18" t="s">
+      <c r="C33" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="18">
+      <c r="D33" s="12">
         <v>5.2270588235294103E-2</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="18" t="s">
+      <c r="C34" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D34" s="18">
+      <c r="D34" s="12">
         <v>0.20984558823529401</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="18" t="s">
+      <c r="A35" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="C35" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="18">
+      <c r="D35" s="12">
         <v>0.222907352941176</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="18" t="s">
+      <c r="A36" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="18" t="s">
+      <c r="B36" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="18" t="s">
+      <c r="C36" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="18">
+      <c r="D36" s="12">
         <v>0.56779999999999997</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="18">
+      <c r="D37" s="12">
         <v>0.19559705882352901</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="18" t="s">
+      <c r="A38" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="C38" s="18" t="s">
+      <c r="C38" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="18">
+      <c r="D38" s="12">
         <v>6.84647058823529E-2</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="18" t="s">
+      <c r="A39" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C39" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="D39" s="18">
+      <c r="D39" s="12">
         <v>7.7741176470588202E-2</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="18" t="s">
+      <c r="A40" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="C40" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="18">
+      <c r="D40" s="12">
         <v>0.210577941176471</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="18" t="s">
+      <c r="A41" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="18" t="s">
+      <c r="C41" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D41" s="18">
+      <c r="D41" s="12">
         <v>0.57016764705882395</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="18" t="s">
+      <c r="A42" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="18" t="s">
+      <c r="B42" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D42" s="18">
+      <c r="D42" s="12">
         <v>0.18191911764705901</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="D43" s="18">
+      <c r="D43" s="12">
         <v>1.6010294117647102E-2</v>
       </c>
     </row>
@@ -3372,7 +3611,7 @@
       <c r="D6">
         <v>0.29303888888888902</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="17" t="s">
         <v>13</v>
       </c>
       <c r="H6" s="5"/>
@@ -3411,17 +3650,17 @@
       <c r="D7">
         <v>0.11869444444444401</v>
       </c>
-      <c r="G7" s="17"/>
+      <c r="G7" s="18"/>
       <c r="H7" s="7"/>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="14"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3439,7 +3678,7 @@
       <c r="G8" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="15" t="s">
         <v>7</v>
       </c>
       <c r="I8" s="9"/>
@@ -3484,7 +3723,7 @@
       <c r="G9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="14"/>
+      <c r="H9" s="15"/>
       <c r="I9" s="10">
         <f>D26</f>
         <v>0.3543</v>
@@ -3527,7 +3766,7 @@
       <c r="G10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H10" s="14"/>
+      <c r="H10" s="15"/>
       <c r="I10" s="10">
         <f>D27</f>
         <v>0.32202222222222199</v>
@@ -3570,7 +3809,7 @@
       <c r="G11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="14"/>
+      <c r="H11" s="15"/>
       <c r="I11" s="10">
         <f>D28</f>
         <v>0.19766111111111101</v>
@@ -3613,7 +3852,7 @@
       <c r="G12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="14"/>
+      <c r="H12" s="15"/>
       <c r="I12" s="10">
         <f>D30</f>
         <v>0.20091666666666699</v>
@@ -3656,7 +3895,7 @@
       <c r="G13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="14"/>
+      <c r="H13" s="15"/>
       <c r="I13" s="10">
         <f>D31</f>
         <v>0.33557777777777797</v>
@@ -3699,7 +3938,7 @@
       <c r="G14" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H14" s="15"/>
+      <c r="H14" s="16"/>
       <c r="I14" s="10">
         <f>D29</f>
         <v>0.71532777777777801</v>
@@ -4545,691 +4784,1828 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1795D780-7E5E-4FBD-9466-2D205C5E6634}">
-  <dimension ref="A2:J30"/>
+  <dimension ref="B1:AA46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J30" sqref="B22:J30"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2:X33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="4" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="11" width="10.42578125" customWidth="1"/>
+    <col min="12" max="13" width="2.85546875" customWidth="1"/>
+    <col min="14" max="14" width="9.28515625" customWidth="1"/>
+    <col min="17" max="23" width="10.42578125" customWidth="1"/>
+    <col min="24" max="24" width="2.85546875" customWidth="1"/>
+    <col min="26" max="26" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="1" spans="2:27" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="28"/>
+      <c r="N2" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="28"/>
+    </row>
+    <row r="3" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="20"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="21"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+      <c r="X3" s="21"/>
+    </row>
+    <row r="4" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="19"/>
+      <c r="E4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="21"/>
+      <c r="N4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="O4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="5" t="s">
+      <c r="P4" s="19"/>
+      <c r="Q4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="R4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="S4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="T4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="U4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="V4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="W4" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="12" t="s">
+      <c r="X4" s="21"/>
+      <c r="Z4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="20"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
-    </row>
-    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="21"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="21"/>
+      <c r="Z5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="20"/>
+      <c r="C6" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="D6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="10">
+      <c r="E6" s="9"/>
+      <c r="F6" s="10">
         <v>0.29804534883720901</v>
       </c>
-      <c r="F4" s="10">
+      <c r="G6" s="10">
         <v>0.31030348837209298</v>
       </c>
-      <c r="G4" s="10">
+      <c r="H6" s="10">
         <v>0.13188488372092999</v>
       </c>
-      <c r="H4" s="10">
+      <c r="I6" s="10">
         <v>0.14729999999999999</v>
       </c>
-      <c r="I4" s="10">
+      <c r="J6" s="10">
         <v>0.294267441860465</v>
       </c>
-      <c r="J4" s="10">
+      <c r="K6" s="10">
         <v>0.66956511627907001</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="6" t="s">
+      <c r="L6" s="21"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="10">
+        <v>0</v>
+      </c>
+      <c r="S6" s="10">
+        <v>0</v>
+      </c>
+      <c r="T6" s="10">
+        <v>0</v>
+      </c>
+      <c r="U6" s="10">
+        <v>0</v>
+      </c>
+      <c r="V6" s="10">
+        <v>0</v>
+      </c>
+      <c r="W6" s="10">
+        <v>0</v>
+      </c>
+      <c r="X6" s="21"/>
+      <c r="Z6" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="20"/>
+      <c r="C7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="10">
+      <c r="D7" s="15"/>
+      <c r="E7" s="10">
         <v>0.32889186046511598</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10">
+      <c r="F7" s="9"/>
+      <c r="G7" s="10">
         <v>0.116977906976744</v>
       </c>
-      <c r="G5" s="10">
+      <c r="H7" s="10">
         <v>0.23723488372092999</v>
       </c>
-      <c r="H5" s="10">
+      <c r="I7" s="10">
         <v>0.18525</v>
       </c>
-      <c r="I5" s="10">
+      <c r="J7" s="10">
         <v>4.1193023255813997E-2</v>
       </c>
-      <c r="J5" s="10">
+      <c r="K7" s="10">
         <v>0.60086395348837196</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="6" t="s">
+      <c r="L7" s="21"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="10">
+        <v>0</v>
+      </c>
+      <c r="R7" s="9"/>
+      <c r="S7" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="T7" s="10">
+        <v>0</v>
+      </c>
+      <c r="U7" s="10">
+        <v>0</v>
+      </c>
+      <c r="V7" s="10">
+        <v>0</v>
+      </c>
+      <c r="W7" s="10">
+        <v>0</v>
+      </c>
+      <c r="X7" s="21"/>
+      <c r="Z7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
+      <c r="C8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="10">
+      <c r="D8" s="15"/>
+      <c r="E8" s="10">
         <v>0.33237209302325599</v>
       </c>
-      <c r="E6" s="10">
+      <c r="F8" s="10">
         <v>8.1843023255813996E-2</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10">
+      <c r="G8" s="9"/>
+      <c r="H8" s="10">
         <v>0.249066279069767</v>
       </c>
-      <c r="H6" s="10">
+      <c r="I8" s="10">
         <v>0.23426046511627899</v>
       </c>
-      <c r="I6" s="10">
+      <c r="J8" s="10">
         <v>8.2987209302325601E-2</v>
       </c>
-      <c r="J6" s="10">
+      <c r="K8" s="10">
         <v>0.57586511627907</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="6" t="s">
+      <c r="L8" s="21"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="10">
+        <v>0</v>
+      </c>
+      <c r="R8" s="10">
+        <v>1</v>
+      </c>
+      <c r="S8" s="9"/>
+      <c r="T8" s="10">
+        <v>0</v>
+      </c>
+      <c r="U8" s="10">
+        <v>0</v>
+      </c>
+      <c r="V8" s="10">
+        <v>1</v>
+      </c>
+      <c r="W8" s="10">
+        <v>0</v>
+      </c>
+      <c r="X8" s="21"/>
+      <c r="Z8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="20"/>
+      <c r="C9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="10">
+      <c r="D9" s="15"/>
+      <c r="E9" s="10">
         <v>0.18048023255814</v>
       </c>
-      <c r="E7" s="10">
+      <c r="F9" s="10">
         <v>0.217541860465116</v>
       </c>
-      <c r="F7" s="10">
+      <c r="G9" s="10">
         <v>0.22886511627907</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="10">
+      <c r="H9" s="9"/>
+      <c r="I9" s="10">
         <v>8.8261627906976697E-2</v>
       </c>
-      <c r="I7" s="10">
+      <c r="J9" s="10">
         <v>0.22039651162790699</v>
       </c>
-      <c r="J7" s="10">
+      <c r="K9" s="10">
         <v>0.60529418604651197</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6" t="s">
+      <c r="L9" s="21"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P9" s="15"/>
+      <c r="Q9" s="10">
+        <v>0</v>
+      </c>
+      <c r="R9" s="10">
+        <v>0</v>
+      </c>
+      <c r="S9" s="10">
+        <v>0</v>
+      </c>
+      <c r="T9" s="9"/>
+      <c r="U9" s="10">
+        <v>0.99</v>
+      </c>
+      <c r="V9" s="10">
+        <v>0</v>
+      </c>
+      <c r="W9" s="10">
+        <v>0</v>
+      </c>
+      <c r="X9" s="21"/>
+      <c r="Z9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="20"/>
+      <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="10">
+      <c r="D10" s="15"/>
+      <c r="E10" s="10">
         <v>0.17816860465116299</v>
       </c>
-      <c r="E8" s="10">
+      <c r="F10" s="10">
         <v>0.182052325581395</v>
       </c>
-      <c r="F8" s="10">
+      <c r="G10" s="10">
         <v>0.19875697674418599</v>
       </c>
-      <c r="G8" s="10">
+      <c r="H10" s="10">
         <v>5.8326744186046497E-2</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="10">
+      <c r="I10" s="9"/>
+      <c r="J10" s="10">
         <v>0.19765232558139501</v>
       </c>
-      <c r="J8" s="10">
+      <c r="K10" s="10">
         <v>0.62156744186046498</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="6" t="s">
+      <c r="L10" s="21"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="10">
+        <v>0</v>
+      </c>
+      <c r="R10" s="10">
+        <v>0</v>
+      </c>
+      <c r="S10" s="10">
+        <v>0</v>
+      </c>
+      <c r="T10" s="10">
+        <v>1</v>
+      </c>
+      <c r="U10" s="9"/>
+      <c r="V10" s="10">
+        <v>0</v>
+      </c>
+      <c r="W10" s="10">
+        <v>0</v>
+      </c>
+      <c r="X10" s="21"/>
+      <c r="Z10" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="20"/>
+      <c r="C11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="10">
+      <c r="D11" s="15"/>
+      <c r="E11" s="10">
         <v>0.32712906976744199</v>
       </c>
-      <c r="E9" s="10">
+      <c r="F11" s="10">
         <v>1.8384883720930199E-2</v>
       </c>
-      <c r="F9" s="10">
+      <c r="G11" s="10">
         <v>7.0940697674418601E-2</v>
       </c>
-      <c r="G9" s="10">
+      <c r="H11" s="10">
         <v>0.214975581395349</v>
       </c>
-      <c r="H9" s="10">
+      <c r="I11" s="10">
         <v>0.181918604651163</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10">
+      <c r="J11" s="9"/>
+      <c r="K11" s="10">
         <v>0.584547674418605</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="6" t="s">
+      <c r="L11" s="21"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P11" s="15"/>
+      <c r="Q11" s="10">
+        <v>0</v>
+      </c>
+      <c r="R11" s="10">
+        <v>0</v>
+      </c>
+      <c r="S11" s="10">
+        <v>1</v>
+      </c>
+      <c r="T11" s="10">
+        <v>0</v>
+      </c>
+      <c r="U11" s="10">
+        <v>0</v>
+      </c>
+      <c r="V11" s="9"/>
+      <c r="W11" s="10">
+        <v>0</v>
+      </c>
+      <c r="X11" s="21"/>
+      <c r="Z11" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA11" s="12">
+        <v>3.7272132623060297E-11</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="20"/>
+      <c r="C12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="10">
+      <c r="D12" s="16"/>
+      <c r="E12" s="10">
         <v>0.68637093023255802</v>
       </c>
-      <c r="E10" s="10">
+      <c r="F12" s="10">
         <v>0.57471976744186004</v>
       </c>
-      <c r="F10" s="10">
+      <c r="G12" s="10">
         <v>0.56427558139534895</v>
       </c>
-      <c r="G10" s="10">
+      <c r="H12" s="10">
         <v>0.61028488372093004</v>
       </c>
-      <c r="H10" s="10">
+      <c r="I12" s="10">
         <v>0.611012790697674</v>
       </c>
-      <c r="I10" s="10">
+      <c r="J12" s="10">
         <v>0.57190581395348805</v>
       </c>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="12" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="K12" s="9"/>
+      <c r="L12" s="21"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="10">
+        <v>0</v>
+      </c>
+      <c r="R12" s="10">
+        <v>0</v>
+      </c>
+      <c r="S12" s="10">
+        <v>0</v>
+      </c>
+      <c r="T12" s="10">
+        <v>0</v>
+      </c>
+      <c r="U12" s="10">
+        <v>0</v>
+      </c>
+      <c r="V12" s="10">
+        <v>0</v>
+      </c>
+      <c r="W12" s="9"/>
+      <c r="X12" s="21"/>
+      <c r="Z12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA12" s="12">
+        <v>3.4260985518513398E-38</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="20"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="21"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+      <c r="U13" s="22"/>
+      <c r="V13" s="22"/>
+      <c r="W13" s="22"/>
+      <c r="X13" s="21"/>
+      <c r="Z13" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA13" s="12">
+        <v>4.4079326081708301E-17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14" s="19"/>
+      <c r="E14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="21"/>
+      <c r="N14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="O14" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="5" t="s">
+      <c r="P14" s="19"/>
+      <c r="Q14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="R14" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="S14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="T14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="6" t="s">
+      <c r="U14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I12" s="6" t="s">
+      <c r="V14" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="W14" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="12" t="s">
+      <c r="X14" s="21"/>
+      <c r="Z14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA14" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="20"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="13"/>
-    </row>
-    <row r="14" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="21"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="21"/>
+      <c r="Z15" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="20"/>
+      <c r="C16" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="D16" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="10">
+      <c r="E16" s="9"/>
+      <c r="F16" s="10">
         <v>0.29722205882352898</v>
       </c>
-      <c r="F14" s="10">
+      <c r="G16" s="10">
         <v>0.314873529411765</v>
       </c>
-      <c r="G14" s="10">
+      <c r="H16" s="10">
         <v>0.13537647058823499</v>
       </c>
-      <c r="H14" s="10">
+      <c r="I16" s="10">
         <v>0.15024705882352901</v>
       </c>
-      <c r="I14" s="10">
+      <c r="J16" s="10">
         <v>0.29860735294117602</v>
       </c>
-      <c r="J14" s="10">
+      <c r="K16" s="10">
         <v>0.66296470588235301</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="6" t="s">
+      <c r="L16" s="21"/>
+      <c r="N16" s="20"/>
+      <c r="O16" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="10">
+        <v>0</v>
+      </c>
+      <c r="S16" s="10">
+        <v>0</v>
+      </c>
+      <c r="T16" s="10">
+        <v>0</v>
+      </c>
+      <c r="U16" s="10">
+        <v>0</v>
+      </c>
+      <c r="V16" s="10">
+        <v>0</v>
+      </c>
+      <c r="W16" s="10">
+        <v>0</v>
+      </c>
+      <c r="X16" s="21"/>
+      <c r="Z16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA16" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="20"/>
+      <c r="C17" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="10">
+      <c r="D17" s="15"/>
+      <c r="E17" s="10">
         <v>0.32216617647058798</v>
       </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10">
+      <c r="F17" s="9"/>
+      <c r="G17" s="10">
         <v>0.114105882352941</v>
       </c>
-      <c r="G15" s="10">
+      <c r="H17" s="10">
         <v>0.231133823529412</v>
       </c>
-      <c r="H15" s="10">
+      <c r="I17" s="10">
         <v>0.18297352941176501</v>
       </c>
-      <c r="I15" s="10">
+      <c r="J17" s="10">
         <v>3.9136764705882399E-2</v>
       </c>
-      <c r="J15" s="10">
+      <c r="K17" s="10">
         <v>0.59760882352941203</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="6" t="s">
+      <c r="L17" s="21"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="10">
+        <v>0</v>
+      </c>
+      <c r="R17" s="9"/>
+      <c r="S17" s="10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T17" s="10">
+        <v>0</v>
+      </c>
+      <c r="U17" s="10">
+        <v>0</v>
+      </c>
+      <c r="V17" s="10">
+        <v>0</v>
+      </c>
+      <c r="W17" s="10">
+        <v>0</v>
+      </c>
+      <c r="X17" s="21"/>
+      <c r="Z17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA17" s="12">
+        <v>1.25892419127128E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="20"/>
+      <c r="C18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="10">
+      <c r="D18" s="15"/>
+      <c r="E18" s="10">
         <v>0.335111764705882</v>
       </c>
-      <c r="E16" s="10">
+      <c r="F18" s="10">
         <v>7.7741176470588202E-2</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10">
+      <c r="G18" s="9"/>
+      <c r="H18" s="10">
         <v>0.239920588235294</v>
       </c>
-      <c r="H16" s="10">
+      <c r="I18" s="10">
         <v>0.2283</v>
       </c>
-      <c r="I16" s="10">
+      <c r="J18" s="10">
         <v>8.2095588235294101E-2</v>
       </c>
-      <c r="J16" s="10">
+      <c r="K18" s="10">
         <v>0.57423529411764695</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="6" t="s">
+      <c r="L18" s="21"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P18" s="15"/>
+      <c r="Q18" s="10">
+        <v>0</v>
+      </c>
+      <c r="R18" s="10">
+        <v>1</v>
+      </c>
+      <c r="S18" s="9"/>
+      <c r="T18" s="10">
+        <v>0</v>
+      </c>
+      <c r="U18" s="10">
+        <v>0</v>
+      </c>
+      <c r="V18" s="10">
+        <v>1</v>
+      </c>
+      <c r="W18" s="10">
+        <v>0</v>
+      </c>
+      <c r="X18" s="21"/>
+      <c r="Z18" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA18" s="12">
+        <v>0.99999999999998701</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="20"/>
+      <c r="C19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="10">
+      <c r="D19" s="15"/>
+      <c r="E19" s="10">
         <v>0.17593235294117601</v>
       </c>
-      <c r="E17" s="10">
+      <c r="F19" s="10">
         <v>0.210577941176471</v>
       </c>
-      <c r="F17" s="10">
+      <c r="G19" s="10">
         <v>0.222907352941176</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="10">
+      <c r="H19" s="9"/>
+      <c r="I19" s="10">
         <v>8.6699999999999999E-2</v>
       </c>
-      <c r="I17" s="10">
+      <c r="J19" s="10">
         <v>0.214214705882353</v>
       </c>
-      <c r="J17" s="10">
+      <c r="K19" s="10">
         <v>0.60174852941176504</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="6" t="s">
+      <c r="L19" s="21"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P19" s="15"/>
+      <c r="Q19" s="10">
+        <v>0</v>
+      </c>
+      <c r="R19" s="10">
+        <v>0</v>
+      </c>
+      <c r="S19" s="10">
+        <v>0</v>
+      </c>
+      <c r="T19" s="9"/>
+      <c r="U19" s="10">
+        <v>0.99</v>
+      </c>
+      <c r="V19" s="10">
+        <v>0</v>
+      </c>
+      <c r="W19" s="10">
+        <v>0</v>
+      </c>
+      <c r="X19" s="21"/>
+      <c r="Z19" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA19" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="20"/>
+      <c r="C20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="10">
+      <c r="D20" s="15"/>
+      <c r="E20" s="10">
         <v>0.17214705882352899</v>
       </c>
-      <c r="E18" s="10">
+      <c r="F20" s="10">
         <v>0.18191911764705901</v>
       </c>
-      <c r="F18" s="10">
+      <c r="G20" s="10">
         <v>0.19559705882352901</v>
       </c>
-      <c r="G18" s="10">
+      <c r="H20" s="10">
         <v>5.2270588235294103E-2</v>
       </c>
-      <c r="H18" s="9"/>
-      <c r="I18" s="10">
+      <c r="I20" s="9"/>
+      <c r="J20" s="10">
         <v>0.19171911764705901</v>
       </c>
-      <c r="J18" s="10">
+      <c r="K20" s="10">
         <v>0.60830588235294103</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="6" t="s">
+      <c r="L20" s="21"/>
+      <c r="N20" s="20"/>
+      <c r="O20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P20" s="15"/>
+      <c r="Q20" s="10">
+        <v>0</v>
+      </c>
+      <c r="R20" s="10">
+        <v>0</v>
+      </c>
+      <c r="S20" s="10">
+        <v>0</v>
+      </c>
+      <c r="T20" s="10">
+        <v>1</v>
+      </c>
+      <c r="U20" s="9"/>
+      <c r="V20" s="10">
+        <v>0</v>
+      </c>
+      <c r="W20" s="10">
+        <v>0</v>
+      </c>
+      <c r="X20" s="21"/>
+      <c r="Z20" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA20" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="20"/>
+      <c r="C21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="10">
+      <c r="D21" s="15"/>
+      <c r="E21" s="10">
         <v>0.32490588235294099</v>
       </c>
-      <c r="E19" s="10">
+      <c r="F21" s="10">
         <v>6.84647058823529E-2</v>
       </c>
-      <c r="F19" s="10">
+      <c r="G21" s="10">
         <v>6.84647058823529E-2</v>
       </c>
-      <c r="G19" s="10">
+      <c r="H21" s="10">
         <v>0.20984558823529401</v>
       </c>
-      <c r="H19" s="10">
+      <c r="I21" s="10">
         <v>0.181180882352941</v>
       </c>
-      <c r="I19" s="9"/>
-      <c r="J19" s="10">
+      <c r="J21" s="9"/>
+      <c r="K21" s="10">
         <v>0.58190882352941198</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
+      <c r="L21" s="21"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P21" s="15"/>
+      <c r="Q21" s="10">
+        <v>0</v>
+      </c>
+      <c r="R21" s="10">
+        <v>0</v>
+      </c>
+      <c r="S21" s="10">
+        <v>1</v>
+      </c>
+      <c r="T21" s="10">
+        <v>0</v>
+      </c>
+      <c r="U21" s="10">
+        <v>0</v>
+      </c>
+      <c r="V21" s="9"/>
+      <c r="W21" s="10">
+        <v>0</v>
+      </c>
+      <c r="X21" s="21"/>
+      <c r="Z21" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA21" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="20"/>
+      <c r="C22" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="15"/>
-      <c r="D20" s="10">
+      <c r="D22" s="16"/>
+      <c r="E22" s="10">
         <v>0.67870588235294105</v>
       </c>
-      <c r="E20" s="10">
+      <c r="F22" s="10">
         <v>0.57016764705882395</v>
       </c>
-      <c r="F20" s="10">
+      <c r="G22" s="10">
         <v>0.56779999999999997</v>
       </c>
-      <c r="G20" s="10">
+      <c r="H22" s="10">
         <v>0.615311764705882</v>
       </c>
-      <c r="H20" s="10">
+      <c r="I22" s="10">
         <v>0.60599558823529398</v>
       </c>
-      <c r="I20" s="10">
+      <c r="J22" s="10">
         <v>0.570427941176471</v>
       </c>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="22" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
+      <c r="K22" s="9"/>
+      <c r="L22" s="21"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="10">
+        <v>0</v>
+      </c>
+      <c r="R22" s="10">
+        <v>0</v>
+      </c>
+      <c r="S22" s="10">
+        <v>0</v>
+      </c>
+      <c r="T22" s="10">
+        <v>0</v>
+      </c>
+      <c r="U22" s="10">
+        <v>0</v>
+      </c>
+      <c r="V22" s="10">
+        <v>0</v>
+      </c>
+      <c r="W22" s="9"/>
+      <c r="X22" s="21"/>
+      <c r="Z22" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA22" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="20"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="22"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="21"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+      <c r="U23" s="22"/>
+      <c r="V23" s="22"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="21"/>
+      <c r="Z23" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA23" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="C24" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="5" t="s">
+      <c r="D24" s="19"/>
+      <c r="E24" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="G24" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="H24" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H22" s="6" t="s">
+      <c r="I24" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="J24" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="6" t="s">
+      <c r="K24" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="12" t="s">
+      <c r="L24" s="21"/>
+      <c r="N24" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="O24" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="T24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="V24" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="W24" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="X24" s="21"/>
+      <c r="Z24" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA24" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="20"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="13"/>
-    </row>
-    <row r="24" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
+      <c r="F25" s="13"/>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="21"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="14"/>
+      <c r="X25" s="21"/>
+      <c r="Z25" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA25" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="20"/>
+      <c r="C26" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="14" t="s">
+      <c r="D26" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="10">
+      <c r="E26" s="9"/>
+      <c r="F26" s="10">
         <v>0.30115555555555601</v>
       </c>
-      <c r="F24" s="10">
+      <c r="G26" s="10">
         <v>0.29303888888888902</v>
       </c>
-      <c r="G24" s="10">
+      <c r="H26" s="10">
         <v>0.11869444444444401</v>
       </c>
-      <c r="H24" s="10">
+      <c r="I26" s="10">
         <v>0.13616666666666699</v>
       </c>
-      <c r="I24" s="10">
+      <c r="J26" s="10">
         <v>0.27758333333333302</v>
       </c>
-      <c r="J24" s="10">
+      <c r="K26" s="10">
         <v>0.69450000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
+      <c r="L26" s="21"/>
+      <c r="N26" s="20"/>
+      <c r="O26" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q26" s="9"/>
+      <c r="R26" s="10">
+        <v>0</v>
+      </c>
+      <c r="S26" s="10">
+        <v>0</v>
+      </c>
+      <c r="T26" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="U26" s="10">
+        <v>0</v>
+      </c>
+      <c r="V26" s="10">
+        <v>0</v>
+      </c>
+      <c r="W26" s="10">
+        <v>0</v>
+      </c>
+      <c r="X26" s="21"/>
+      <c r="Z26" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA26" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="20"/>
+      <c r="C27" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="10">
+      <c r="D27" s="15"/>
+      <c r="E27" s="10">
         <v>0.3543</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="10">
+      <c r="F27" s="9"/>
+      <c r="G27" s="10">
         <v>0.12782777777777801</v>
       </c>
-      <c r="G25" s="10">
+      <c r="H27" s="10">
         <v>0.26028333333333298</v>
       </c>
-      <c r="H25" s="10">
+      <c r="I27" s="10">
         <v>0.19384999999999999</v>
       </c>
-      <c r="I25" s="10">
+      <c r="J27" s="10">
         <v>4.89222222222222E-2</v>
       </c>
-      <c r="J25" s="10">
+      <c r="K27" s="10">
         <v>0.61316111111111105</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="6" t="s">
+      <c r="L27" s="21"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="P27" s="15"/>
+      <c r="Q27" s="10">
+        <v>0</v>
+      </c>
+      <c r="R27" s="9"/>
+      <c r="S27" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="T27" s="10">
+        <v>0</v>
+      </c>
+      <c r="U27" s="10">
+        <v>0</v>
+      </c>
+      <c r="V27" s="10">
+        <v>0</v>
+      </c>
+      <c r="W27" s="10">
+        <v>0</v>
+      </c>
+      <c r="X27" s="21"/>
+      <c r="Z27" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA27" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="20"/>
+      <c r="C28" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="10">
+      <c r="D28" s="15"/>
+      <c r="E28" s="10">
         <v>0.32202222222222199</v>
       </c>
-      <c r="E26" s="10">
+      <c r="F28" s="10">
         <v>9.7338888888888905E-2</v>
       </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="10">
+      <c r="G28" s="9"/>
+      <c r="H28" s="10">
         <v>0.28361666666666702</v>
       </c>
-      <c r="H26" s="10">
+      <c r="I28" s="10">
         <v>0.25677777777777799</v>
       </c>
-      <c r="I26" s="10">
+      <c r="J28" s="10">
         <v>8.6238888888888907E-2</v>
       </c>
-      <c r="J26" s="10">
+      <c r="K28" s="10">
         <v>0.582022222222222</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
+      <c r="L28" s="21"/>
+      <c r="N28" s="20"/>
+      <c r="O28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="P28" s="15"/>
+      <c r="Q28" s="10">
+        <v>0</v>
+      </c>
+      <c r="R28" s="10">
+        <v>0.93</v>
+      </c>
+      <c r="S28" s="9"/>
+      <c r="T28" s="10">
+        <v>0</v>
+      </c>
+      <c r="U28" s="10">
+        <v>0</v>
+      </c>
+      <c r="V28" s="10">
+        <v>0.99</v>
+      </c>
+      <c r="W28" s="10">
+        <v>0</v>
+      </c>
+      <c r="X28" s="21"/>
+      <c r="Z28" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA28" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="20"/>
+      <c r="C29" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="10">
+      <c r="D29" s="15"/>
+      <c r="E29" s="10">
         <v>0.19766111111111101</v>
       </c>
-      <c r="E27" s="10">
+      <c r="F29" s="10">
         <v>0.24385000000000001</v>
       </c>
-      <c r="F27" s="10">
+      <c r="G29" s="10">
         <v>0.251372222222222</v>
       </c>
-      <c r="G27" s="9"/>
-      <c r="H27" s="10">
+      <c r="H29" s="9"/>
+      <c r="I29" s="10">
         <v>9.4161111111111098E-2</v>
       </c>
-      <c r="I27" s="10">
+      <c r="J29" s="10">
         <v>0.24381111111111101</v>
       </c>
-      <c r="J27" s="10">
+      <c r="K29" s="10">
         <v>0.61868888888888895</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
+      <c r="L29" s="21"/>
+      <c r="N29" s="20"/>
+      <c r="O29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="P29" s="15"/>
+      <c r="Q29" s="10">
+        <v>0</v>
+      </c>
+      <c r="R29" s="10">
+        <v>0</v>
+      </c>
+      <c r="S29" s="10">
+        <v>0</v>
+      </c>
+      <c r="T29" s="9"/>
+      <c r="U29" s="10">
+        <v>0.52</v>
+      </c>
+      <c r="V29" s="10">
+        <v>0</v>
+      </c>
+      <c r="W29" s="10">
+        <v>0</v>
+      </c>
+      <c r="X29" s="21"/>
+      <c r="Z29" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA29" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="20"/>
+      <c r="C30" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="10">
+      <c r="D30" s="15"/>
+      <c r="E30" s="10">
         <v>0.20091666666666699</v>
       </c>
-      <c r="E28" s="10">
+      <c r="F30" s="10">
         <v>0.182555555555556</v>
       </c>
-      <c r="F28" s="10">
+      <c r="G30" s="10">
         <v>0.21069444444444399</v>
       </c>
-      <c r="G28" s="10">
+      <c r="H30" s="10">
         <v>8.12055555555556E-2</v>
       </c>
-      <c r="H28" s="9"/>
-      <c r="I28" s="10">
+      <c r="I30" s="9"/>
+      <c r="J30" s="10">
         <v>0.220122222222222</v>
       </c>
-      <c r="J28" s="10">
+      <c r="K30" s="10">
         <v>0.67166666666666697</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="6" t="s">
+      <c r="L30" s="21"/>
+      <c r="N30" s="20"/>
+      <c r="O30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="10">
+        <v>0</v>
+      </c>
+      <c r="R30" s="10">
+        <v>0</v>
+      </c>
+      <c r="S30" s="10">
+        <v>0</v>
+      </c>
+      <c r="T30" s="10">
+        <v>0.84</v>
+      </c>
+      <c r="U30" s="9"/>
+      <c r="V30" s="10">
+        <v>0</v>
+      </c>
+      <c r="W30" s="10">
+        <v>0</v>
+      </c>
+      <c r="X30" s="21"/>
+      <c r="Z30" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA30" s="12">
+        <v>3.8234555987895201E-47</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="20"/>
+      <c r="C31" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="10">
+      <c r="D31" s="15"/>
+      <c r="E31" s="10">
         <v>0.33557777777777797</v>
       </c>
-      <c r="E29" s="10">
+      <c r="F31" s="10">
         <v>8.0233333333333295E-2</v>
       </c>
-      <c r="F29" s="10">
+      <c r="G31" s="10">
         <v>8.0233333333333295E-2</v>
       </c>
-      <c r="G29" s="10">
+      <c r="H31" s="10">
         <v>0.23433888888888901</v>
       </c>
-      <c r="H29" s="10">
+      <c r="I31" s="10">
         <v>0.18468888888888901</v>
       </c>
-      <c r="I29" s="9"/>
-      <c r="J29" s="10">
+      <c r="J31" s="9"/>
+      <c r="K31" s="10">
         <v>0.59445555555555596</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="6" t="s">
+      <c r="L31" s="21"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P31" s="15"/>
+      <c r="Q31" s="10">
+        <v>0</v>
+      </c>
+      <c r="R31" s="10">
+        <v>0</v>
+      </c>
+      <c r="S31" s="10">
+        <v>0.99</v>
+      </c>
+      <c r="T31" s="10">
+        <v>0</v>
+      </c>
+      <c r="U31" s="10">
+        <v>0</v>
+      </c>
+      <c r="V31" s="9"/>
+      <c r="W31" s="10">
+        <v>0</v>
+      </c>
+      <c r="X31" s="21"/>
+      <c r="Z31" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="AA31" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="20"/>
+      <c r="C32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="10">
+      <c r="D32" s="16"/>
+      <c r="E32" s="10">
         <v>0.71532777777777801</v>
       </c>
-      <c r="E30" s="10">
+      <c r="F32" s="10">
         <v>0.59191666666666698</v>
       </c>
-      <c r="F30" s="10">
+      <c r="G32" s="10">
         <v>0.55096111111111101</v>
       </c>
-      <c r="G30" s="10">
+      <c r="H32" s="10">
         <v>0.59129444444444401</v>
       </c>
-      <c r="H30" s="10">
+      <c r="I32" s="10">
         <v>0.62996666666666701</v>
       </c>
-      <c r="I30" s="10">
+      <c r="J32" s="10">
         <v>0.57735555555555595</v>
       </c>
-      <c r="J30" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="21"/>
+      <c r="N32" s="20"/>
+      <c r="O32" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P32" s="16"/>
+      <c r="Q32" s="10">
+        <v>0</v>
+      </c>
+      <c r="R32" s="10">
+        <v>0</v>
+      </c>
+      <c r="S32" s="10">
+        <v>0</v>
+      </c>
+      <c r="T32" s="10">
+        <v>0</v>
+      </c>
+      <c r="U32" s="10">
+        <v>0</v>
+      </c>
+      <c r="V32" s="10">
+        <v>0</v>
+      </c>
+      <c r="W32" s="9"/>
+      <c r="X32" s="21"/>
+      <c r="Z32" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA32" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="23"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="25"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="24"/>
+      <c r="S33" s="24"/>
+      <c r="T33" s="24"/>
+      <c r="U33" s="24"/>
+      <c r="V33" s="24"/>
+      <c r="W33" s="24"/>
+      <c r="X33" s="25"/>
+      <c r="Z33" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA33" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z34" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA34" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z35" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA35" s="12">
+        <v>0.99991615694712299</v>
+      </c>
+    </row>
+    <row r="36" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z36" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA36" s="12">
+        <v>0.99999999999964795</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z37" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA37" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z38" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA38" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z39" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA39" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z40" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="AA40" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z41" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA41" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z42" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA42" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z43" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA43" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z44" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA44" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z45" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA45" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z46" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA46" s="12">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="D23:J23"/>
-    <mergeCell ref="C24:C30"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="B22:C23"/>
-    <mergeCell ref="D3:J3"/>
-    <mergeCell ref="C4:C10"/>
-    <mergeCell ref="D13:J13"/>
-    <mergeCell ref="C14:C20"/>
+  <mergeCells count="20">
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="P16:P22"/>
+    <mergeCell ref="O24:P25"/>
+    <mergeCell ref="Q25:W25"/>
+    <mergeCell ref="P26:P32"/>
+    <mergeCell ref="N2:X2"/>
+    <mergeCell ref="O4:P5"/>
+    <mergeCell ref="Q5:W5"/>
+    <mergeCell ref="P6:P12"/>
+    <mergeCell ref="O14:P15"/>
+    <mergeCell ref="Q15:W15"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="D26:D32"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="C24:D25"/>
+    <mergeCell ref="E5:K5"/>
+    <mergeCell ref="D6:D12"/>
+    <mergeCell ref="E15:K15"/>
+    <mergeCell ref="D16:D22"/>
   </mergeCells>
-  <conditionalFormatting sqref="D5:D10 E6:E10 E4 F4:F5 F7 F8:G8 F9:H9 F10:I10 G4:G6 H4:H7 I4:I8 J4:J9">
-    <cfRule type="colorScale" priority="79">
+  <conditionalFormatting sqref="E7:E12 F8:F12 F6 G6:G7 G9 G10:H10 G11:I11 G12:J12 H6:H8 I6:I9 J6:J10 K6:K11">
+    <cfRule type="colorScale" priority="235">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5240,388 +6616,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D10">
-    <cfRule type="colorScale" priority="117">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:I10 D5 D6:E6 D7:F7 D8:G8 D9:H9 J9 I8:J8 H7:J7 G6:J6 F5:J5 E4:J4">
-    <cfRule type="colorScale" priority="80">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="colorScale" priority="81">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E6">
-    <cfRule type="colorScale" priority="116">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E7">
-    <cfRule type="colorScale" priority="115">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
-    <cfRule type="colorScale" priority="114">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E9">
-    <cfRule type="colorScale" priority="113">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="colorScale" priority="112">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="colorScale" priority="83">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="colorScale" priority="82">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="colorScale" priority="108">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F8">
-    <cfRule type="colorScale" priority="109">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
-    <cfRule type="colorScale" priority="110">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
-    <cfRule type="colorScale" priority="111">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="colorScale" priority="84">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="colorScale" priority="85">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="colorScale" priority="86">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G8">
-    <cfRule type="colorScale" priority="107">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="colorScale" priority="106">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="colorScale" priority="105">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H4">
-    <cfRule type="colorScale" priority="90">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="colorScale" priority="89">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H6">
-    <cfRule type="colorScale" priority="88">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="colorScale" priority="87">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
-    <cfRule type="colorScale" priority="103">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H10">
-    <cfRule type="colorScale" priority="104">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I4">
-    <cfRule type="colorScale" priority="91">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="colorScale" priority="93">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I6">
-    <cfRule type="colorScale" priority="94">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="colorScale" priority="95">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8">
-    <cfRule type="colorScale" priority="101">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I10">
-    <cfRule type="colorScale" priority="102">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J4">
-    <cfRule type="colorScale" priority="92">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J5">
-    <cfRule type="colorScale" priority="96">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6">
-    <cfRule type="colorScale" priority="97">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7">
-    <cfRule type="colorScale" priority="98">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8">
-    <cfRule type="colorScale" priority="99">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9">
-    <cfRule type="colorScale" priority="100">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D15:D20 E16:E20 E14 F14:F15 F17 F18:G18 F19:H19 F20:I20 G14:G16 H14:H17 I14:I18 J14:J19">
-    <cfRule type="colorScale" priority="40">
+  <conditionalFormatting sqref="E7:E12">
+    <cfRule type="colorScale" priority="273">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17:E22 F18:F22 F16 G16:G17 G19 G20:H20 G21:I21 G22:J22 H16:H18 I16:I19 J16:J20 K16:K21">
+    <cfRule type="colorScale" priority="196">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -5632,388 +6638,18 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15:D20">
-    <cfRule type="colorScale" priority="78">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:I20 D15 D16:E16 D17:F17 D18:G18 D19:H19 J19 I18:J18 H17:J17 G16:J16 F15:J15 E14:J14">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E14">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="colorScale" priority="77">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="colorScale" priority="76">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="colorScale" priority="75">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="colorScale" priority="74">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="colorScale" priority="73">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
-    <cfRule type="colorScale" priority="44">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="colorScale" priority="43">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="colorScale" priority="69">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="colorScale" priority="70">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="colorScale" priority="71">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="colorScale" priority="72">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G15">
-    <cfRule type="colorScale" priority="46">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16">
-    <cfRule type="colorScale" priority="47">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="colorScale" priority="68">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
-    <cfRule type="colorScale" priority="67">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G20">
-    <cfRule type="colorScale" priority="66">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="colorScale" priority="51">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H15">
-    <cfRule type="colorScale" priority="50">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="colorScale" priority="49">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="colorScale" priority="48">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="colorScale" priority="64">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H20">
-    <cfRule type="colorScale" priority="65">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
-    <cfRule type="colorScale" priority="52">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I16">
-    <cfRule type="colorScale" priority="55">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="colorScale" priority="56">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
-    <cfRule type="colorScale" priority="62">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I20">
-    <cfRule type="colorScale" priority="63">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14">
-    <cfRule type="colorScale" priority="53">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15">
-    <cfRule type="colorScale" priority="57">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J16">
-    <cfRule type="colorScale" priority="58">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J17">
-    <cfRule type="colorScale" priority="59">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J18">
-    <cfRule type="colorScale" priority="60">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J19">
-    <cfRule type="colorScale" priority="61">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="max"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25:D30 E26:E30 E24 F24:F25 F27 F28:G28 F29:H29 F30:I30 G24:G26 H24:H27 I24:I28 J24:J29">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="E17:E22">
+    <cfRule type="colorScale" priority="234">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E32 F28:F32 F26 G26:G27 G29 G30:H30 G31:I31 G32:J32 H26:H28 I26:I29 J26:J30 K26:K31">
+    <cfRule type="colorScale" priority="157">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -6024,7 +6660,1183 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D25:D30">
+  <conditionalFormatting sqref="E27:E32">
+    <cfRule type="colorScale" priority="195">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E12:J12 E7 E8:F8 E9:G9 E10:H10 E11:I11 K11 J10:K10 I9:K9 H8:K8 G7:K7 F6:K6">
+    <cfRule type="colorScale" priority="236">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22:J22 E17 E18:F18 E19:G19 E20:H20 E21:I21 K21 J20:K20 I19:K19 H18:K18 G17:K17 F16:K16">
+    <cfRule type="colorScale" priority="197">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:J32 E27 E28:F28 E29:G29 E30:H30 E31:I31 K31 J30:K30 I29:K29 H28:K28 G27:K27 F26:K26">
+    <cfRule type="colorScale" priority="158">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6">
+    <cfRule type="colorScale" priority="237">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F8">
+    <cfRule type="colorScale" priority="272">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="colorScale" priority="271">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10">
+    <cfRule type="colorScale" priority="270">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="colorScale" priority="269">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F12">
+    <cfRule type="colorScale" priority="268">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="colorScale" priority="198">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="colorScale" priority="233">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="colorScale" priority="232">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="colorScale" priority="231">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F21">
+    <cfRule type="colorScale" priority="230">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F22">
+    <cfRule type="colorScale" priority="229">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="colorScale" priority="159">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="colorScale" priority="194">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="colorScale" priority="193">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="colorScale" priority="192">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="colorScale" priority="191">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="colorScale" priority="190">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="colorScale" priority="239">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="colorScale" priority="238">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="colorScale" priority="264">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="colorScale" priority="265">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G11">
+    <cfRule type="colorScale" priority="266">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G12">
+    <cfRule type="colorScale" priority="267">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16">
+    <cfRule type="colorScale" priority="200">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="colorScale" priority="199">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="colorScale" priority="225">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="colorScale" priority="226">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21">
+    <cfRule type="colorScale" priority="227">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="colorScale" priority="228">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
+    <cfRule type="colorScale" priority="161">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G27">
+    <cfRule type="colorScale" priority="160">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="colorScale" priority="186">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30">
+    <cfRule type="colorScale" priority="187">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
+    <cfRule type="colorScale" priority="188">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
+    <cfRule type="colorScale" priority="189">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6">
+    <cfRule type="colorScale" priority="240">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="colorScale" priority="241">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H8">
+    <cfRule type="colorScale" priority="242">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H10">
+    <cfRule type="colorScale" priority="263">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H11">
+    <cfRule type="colorScale" priority="262">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H12">
+    <cfRule type="colorScale" priority="261">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="colorScale" priority="201">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="colorScale" priority="202">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="colorScale" priority="203">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H20">
+    <cfRule type="colorScale" priority="224">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H21">
+    <cfRule type="colorScale" priority="223">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="colorScale" priority="222">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H26">
+    <cfRule type="colorScale" priority="162">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H27">
+    <cfRule type="colorScale" priority="163">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H28">
+    <cfRule type="colorScale" priority="164">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H30">
+    <cfRule type="colorScale" priority="185">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H31">
+    <cfRule type="colorScale" priority="184">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="colorScale" priority="183">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6">
+    <cfRule type="colorScale" priority="246">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="colorScale" priority="245">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I8">
+    <cfRule type="colorScale" priority="244">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="colorScale" priority="243">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="colorScale" priority="259">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I12">
+    <cfRule type="colorScale" priority="260">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I16">
+    <cfRule type="colorScale" priority="207">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="colorScale" priority="206">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="colorScale" priority="205">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19">
+    <cfRule type="colorScale" priority="204">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I21">
+    <cfRule type="colorScale" priority="220">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="colorScale" priority="221">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="colorScale" priority="168">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="colorScale" priority="167">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="colorScale" priority="166">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="colorScale" priority="165">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="colorScale" priority="181">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="colorScale" priority="182">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6">
+    <cfRule type="colorScale" priority="247">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="colorScale" priority="249">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J8">
+    <cfRule type="colorScale" priority="250">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="colorScale" priority="251">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J10">
+    <cfRule type="colorScale" priority="257">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J12">
+    <cfRule type="colorScale" priority="258">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16">
+    <cfRule type="colorScale" priority="208">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="colorScale" priority="210">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J18">
+    <cfRule type="colorScale" priority="211">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J19">
+    <cfRule type="colorScale" priority="212">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20">
+    <cfRule type="colorScale" priority="218">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="colorScale" priority="219">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J26">
+    <cfRule type="colorScale" priority="169">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27">
+    <cfRule type="colorScale" priority="171">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J28">
+    <cfRule type="colorScale" priority="172">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J29">
+    <cfRule type="colorScale" priority="173">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J30">
+    <cfRule type="colorScale" priority="179">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J32">
+    <cfRule type="colorScale" priority="180">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6">
+    <cfRule type="colorScale" priority="248">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
+    <cfRule type="colorScale" priority="252">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K8">
+    <cfRule type="colorScale" priority="253">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K9">
+    <cfRule type="colorScale" priority="254">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K10">
+    <cfRule type="colorScale" priority="255">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="colorScale" priority="256">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K16">
+    <cfRule type="colorScale" priority="209">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="colorScale" priority="213">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K18">
+    <cfRule type="colorScale" priority="214">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K19">
+    <cfRule type="colorScale" priority="215">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20">
+    <cfRule type="colorScale" priority="216">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K21">
+    <cfRule type="colorScale" priority="217">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K26">
+    <cfRule type="colorScale" priority="170">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27">
+    <cfRule type="colorScale" priority="174">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K28">
+    <cfRule type="colorScale" priority="175">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K29">
+    <cfRule type="colorScale" priority="176">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K30">
+    <cfRule type="colorScale" priority="177">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K31">
+    <cfRule type="colorScale" priority="178">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q7:Q12 R8:R12 R6 S6:S7 S9 S10:T10 S11:U11 S12:V12 T6:T8 U6:U9 V6:V10 W6:W11">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q7:Q12">
+    <cfRule type="colorScale" priority="117">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q17:Q22 R18:R22 R16 S16:S17 S19 S20:T20 S21:U21 S22:V22 T16:T18 U16:U19 V16:V20 W16:W21">
+    <cfRule type="colorScale" priority="40">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q17:Q22">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q27:Q32 R28:R32 R26 S26:S27 S29 S30:T30 S31:U31 S32:V32 T26:T28 U26:U29 V26:V30 W26:W31">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q27:Q32">
     <cfRule type="colorScale" priority="39">
       <colorScale>
         <cfvo type="min"/>
@@ -6034,7 +7846,27 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D30:I30 D25 D26:E26 D27:F27 D28:G28 D29:H29 J29 I28:J28 H27:J27 G26:J26 F25:J25 E24:J24">
+  <conditionalFormatting sqref="Q12:V12 Q7 Q8:R8 Q9:S9 Q10:T10 Q11:U11 W11 V10:W10 U9:W9 T8:W8 S7:W7 R6:W6">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q22:V22 Q17 Q18:R18 Q19:S19 Q20:T20 Q21:U21 W21 V20:W20 U19:W19 T18:W18 S17:W17 R16:W16">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q32:V32 Q27 Q28:R28 Q29:S29 Q30:T30 Q31:U31 W31 V30:W30 U29:W29 T28:W28 S27:W27 R26:W26">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
@@ -6044,7 +7876,127 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="R6">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R8">
+    <cfRule type="colorScale" priority="116">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R9">
+    <cfRule type="colorScale" priority="115">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R10">
+    <cfRule type="colorScale" priority="114">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R11">
+    <cfRule type="colorScale" priority="113">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R12">
+    <cfRule type="colorScale" priority="112">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R16">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R18">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R19">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R20">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R21">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R22">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R26">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -6054,7 +8006,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
+  <conditionalFormatting sqref="R28">
     <cfRule type="colorScale" priority="38">
       <colorScale>
         <cfvo type="min"/>
@@ -6064,7 +8016,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
+  <conditionalFormatting sqref="R29">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -6074,7 +8026,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
+  <conditionalFormatting sqref="R30">
     <cfRule type="colorScale" priority="36">
       <colorScale>
         <cfvo type="min"/>
@@ -6084,7 +8036,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
+  <conditionalFormatting sqref="R31">
     <cfRule type="colorScale" priority="35">
       <colorScale>
         <cfvo type="min"/>
@@ -6094,7 +8046,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
+  <conditionalFormatting sqref="R32">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -6104,7 +8056,127 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
+  <conditionalFormatting sqref="S6">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S7">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S9">
+    <cfRule type="colorScale" priority="108">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S10">
+    <cfRule type="colorScale" priority="109">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S11">
+    <cfRule type="colorScale" priority="110">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S12">
+    <cfRule type="colorScale" priority="111">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S16">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S17">
+    <cfRule type="colorScale" priority="43">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S19">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S20">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S21">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S22">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S26">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -6114,7 +8186,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F25">
+  <conditionalFormatting sqref="S27">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -6124,7 +8196,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
+  <conditionalFormatting sqref="S29">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="min"/>
@@ -6134,7 +8206,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
+  <conditionalFormatting sqref="S30">
     <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
@@ -6144,7 +8216,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29">
+  <conditionalFormatting sqref="S31">
     <cfRule type="colorScale" priority="32">
       <colorScale>
         <cfvo type="min"/>
@@ -6154,7 +8226,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
+  <conditionalFormatting sqref="S32">
     <cfRule type="colorScale" priority="33">
       <colorScale>
         <cfvo type="min"/>
@@ -6164,7 +8236,127 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G24">
+  <conditionalFormatting sqref="T6">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T7">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T8">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T10">
+    <cfRule type="colorScale" priority="107">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T11">
+    <cfRule type="colorScale" priority="106">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T12">
+    <cfRule type="colorScale" priority="105">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T16">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T17">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T18">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T20">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T21">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T22">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T26">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -6174,7 +8366,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
+  <conditionalFormatting sqref="T27">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -6184,7 +8376,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+  <conditionalFormatting sqref="T28">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -6194,7 +8386,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
+  <conditionalFormatting sqref="T30">
     <cfRule type="colorScale" priority="29">
       <colorScale>
         <cfvo type="min"/>
@@ -6204,7 +8396,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G29">
+  <conditionalFormatting sqref="T31">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
@@ -6214,7 +8406,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G30">
+  <conditionalFormatting sqref="T32">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -6224,7 +8416,127 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H24">
+  <conditionalFormatting sqref="U6">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U7">
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U8">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U9">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U11">
+    <cfRule type="colorScale" priority="103">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U12">
+    <cfRule type="colorScale" priority="104">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U16">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U17">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U18">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U19">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U21">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U22">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U26">
     <cfRule type="colorScale" priority="12">
       <colorScale>
         <cfvo type="min"/>
@@ -6234,7 +8546,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
+  <conditionalFormatting sqref="U27">
     <cfRule type="colorScale" priority="11">
       <colorScale>
         <cfvo type="min"/>
@@ -6244,7 +8556,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
+  <conditionalFormatting sqref="U28">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -6254,7 +8566,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27">
+  <conditionalFormatting sqref="U29">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -6264,7 +8576,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H29">
+  <conditionalFormatting sqref="U31">
     <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
@@ -6274,7 +8586,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H30">
+  <conditionalFormatting sqref="U32">
     <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
@@ -6284,7 +8596,127 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
+  <conditionalFormatting sqref="V6">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V7">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V8">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V9">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V10">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V12">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V16">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V17">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V18">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V19">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V20">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V22">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V26">
     <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
@@ -6294,7 +8726,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I25">
+  <conditionalFormatting sqref="V27">
     <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
@@ -6304,7 +8736,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
+  <conditionalFormatting sqref="V28">
     <cfRule type="colorScale" priority="16">
       <colorScale>
         <cfvo type="min"/>
@@ -6314,7 +8746,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
+  <conditionalFormatting sqref="V29">
     <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
@@ -6324,7 +8756,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
+  <conditionalFormatting sqref="V30">
     <cfRule type="colorScale" priority="23">
       <colorScale>
         <cfvo type="min"/>
@@ -6334,7 +8766,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
+  <conditionalFormatting sqref="V32">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -6344,7 +8776,127 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J24">
+  <conditionalFormatting sqref="W6">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W7">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W8">
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W9">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W10">
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W11">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W16">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W17">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W18">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W19">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W20">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W21">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W26">
     <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
@@ -6354,7 +8906,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25">
+  <conditionalFormatting sqref="W27">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -6364,7 +8916,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J26">
+  <conditionalFormatting sqref="W28">
     <cfRule type="colorScale" priority="19">
       <colorScale>
         <cfvo type="min"/>
@@ -6374,7 +8926,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J27">
+  <conditionalFormatting sqref="W29">
     <cfRule type="colorScale" priority="20">
       <colorScale>
         <cfvo type="min"/>
@@ -6384,7 +8936,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J28">
+  <conditionalFormatting sqref="W30">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -6394,7 +8946,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J29">
+  <conditionalFormatting sqref="W31">
     <cfRule type="colorScale" priority="22">
       <colorScale>
         <cfvo type="min"/>
